--- a/data_year/zb/公共管理、社会保障及其他/人民检察院直接立案侦查案件情况/人民检察院结案人数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院直接立案侦查案件情况/人民检察院结案人数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,798 +503,338 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2278</v>
+        <v>1546</v>
       </c>
       <c r="C2" t="n">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>1678</v>
+        <v>1162</v>
       </c>
       <c r="F2" t="n">
-        <v>10258</v>
+        <v>4037</v>
       </c>
       <c r="G2" t="n">
-        <v>45720</v>
+        <v>46253</v>
       </c>
       <c r="H2" t="n">
-        <v>7852</v>
+        <v>10694</v>
       </c>
       <c r="I2" t="n">
-        <v>1456</v>
+        <v>3298</v>
       </c>
       <c r="J2" t="n">
-        <v>2440</v>
+        <v>4688</v>
       </c>
       <c r="K2" t="n">
-        <v>17553</v>
+        <v>14991</v>
       </c>
       <c r="L2" t="n">
-        <v>37868</v>
+        <v>35559</v>
       </c>
       <c r="M2" t="n">
-        <v>9530</v>
+        <v>15968</v>
       </c>
       <c r="N2" t="n">
-        <v>365</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1886</v>
+        <v>1291</v>
       </c>
       <c r="C3" t="n">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>1860</v>
+        <v>1000</v>
       </c>
       <c r="F3" t="n">
-        <v>9573</v>
+        <v>3456</v>
       </c>
       <c r="G3" t="n">
-        <v>45910</v>
+        <v>43718</v>
       </c>
       <c r="H3" t="n">
-        <v>8509</v>
+        <v>10404</v>
       </c>
       <c r="I3" t="n">
-        <v>2003</v>
+        <v>3317</v>
       </c>
       <c r="J3" t="n">
-        <v>2760</v>
+        <v>4796</v>
       </c>
       <c r="K3" t="n">
-        <v>17349</v>
+        <v>14149</v>
       </c>
       <c r="L3" t="n">
-        <v>37401</v>
+        <v>33314</v>
       </c>
       <c r="M3" t="n">
-        <v>9896</v>
+        <v>15136</v>
       </c>
       <c r="N3" t="n">
-        <v>427</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1941</v>
+        <v>1264</v>
       </c>
       <c r="C4" t="n">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>1926</v>
+        <v>1130</v>
       </c>
       <c r="F4" t="n">
-        <v>8100</v>
+        <v>3607</v>
       </c>
       <c r="G4" t="n">
-        <v>44777</v>
+        <v>48013</v>
       </c>
       <c r="H4" t="n">
-        <v>8635</v>
+        <v>11737</v>
       </c>
       <c r="I4" t="n">
-        <v>2070</v>
+        <v>4153</v>
       </c>
       <c r="J4" t="n">
-        <v>2698</v>
+        <v>5190</v>
       </c>
       <c r="K4" t="n">
-        <v>16851</v>
+        <v>15144</v>
       </c>
       <c r="L4" t="n">
-        <v>36142</v>
+        <v>36276</v>
       </c>
       <c r="M4" t="n">
-        <v>10561</v>
+        <v>16976</v>
       </c>
       <c r="N4" t="n">
-        <v>478</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1736</v>
-      </c>
-      <c r="C5" t="n">
-        <v>64</v>
-      </c>
+        <v>1526</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>1587</v>
+        <v>865</v>
       </c>
       <c r="F5" t="n">
-        <v>6936</v>
+        <v>3547</v>
       </c>
       <c r="G5" t="n">
-        <v>40639</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7932</v>
-      </c>
+        <v>49225</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>2014</v>
+        <v>4718</v>
       </c>
       <c r="J5" t="n">
-        <v>2595</v>
+        <v>5680</v>
       </c>
       <c r="K5" t="n">
-        <v>14979</v>
-      </c>
-      <c r="L5" t="n">
-        <v>32707</v>
-      </c>
+        <v>15647</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>10197</v>
+        <v>16808</v>
       </c>
       <c r="N5" t="n">
-        <v>512</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1818</v>
-      </c>
-      <c r="C6" t="n">
-        <v>55</v>
-      </c>
+        <v>1497</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>1414</v>
+        <v>1024</v>
       </c>
       <c r="F6" t="n">
-        <v>6468</v>
+        <v>3201</v>
       </c>
       <c r="G6" t="n">
-        <v>40431</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7938</v>
-      </c>
+        <v>50816</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>2006</v>
+        <v>5024</v>
       </c>
       <c r="J6" t="n">
-        <v>2700</v>
+        <v>5702</v>
       </c>
       <c r="K6" t="n">
-        <v>15014</v>
-      </c>
-      <c r="L6" t="n">
-        <v>32493</v>
-      </c>
+        <v>14845</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>10325</v>
+        <v>19106</v>
       </c>
       <c r="N6" t="n">
-        <v>602</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1675</v>
-      </c>
-      <c r="C7" t="n">
-        <v>40</v>
-      </c>
+        <v>1777</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>994</v>
+        <v>883</v>
       </c>
       <c r="F7" t="n">
-        <v>6057</v>
+        <v>3132</v>
       </c>
       <c r="G7" t="n">
-        <v>38457</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7348</v>
-      </c>
+        <v>49387</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>1932</v>
+        <v>4507</v>
       </c>
       <c r="J7" t="n">
-        <v>2747</v>
+        <v>5033</v>
       </c>
       <c r="K7" t="n">
-        <v>14036</v>
-      </c>
-      <c r="L7" t="n">
-        <v>31109</v>
-      </c>
+        <v>14680</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>10365</v>
+        <v>18989</v>
       </c>
       <c r="N7" t="n">
-        <v>590</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1350</v>
-      </c>
-      <c r="C8" t="n">
-        <v>39</v>
-      </c>
+        <v>1856</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>982</v>
+        <v>782</v>
       </c>
       <c r="F8" t="n">
-        <v>5392</v>
+        <v>3192</v>
       </c>
       <c r="G8" t="n">
-        <v>37723</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7467</v>
-      </c>
+        <v>43738</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>2114</v>
+        <v>4212</v>
       </c>
       <c r="J8" t="n">
-        <v>3021</v>
+        <v>4437</v>
       </c>
       <c r="K8" t="n">
-        <v>12798</v>
-      </c>
-      <c r="L8" t="n">
-        <v>30256</v>
-      </c>
+        <v>12685</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>11475</v>
+        <v>16157</v>
       </c>
       <c r="N8" t="n">
-        <v>525</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1479</v>
-      </c>
-      <c r="C9" t="n">
-        <v>48</v>
-      </c>
+        <v>1144</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>958</v>
+        <v>781</v>
       </c>
       <c r="F9" t="n">
-        <v>4945</v>
+        <v>3921</v>
       </c>
       <c r="G9" t="n">
-        <v>39322</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8108</v>
-      </c>
+        <v>53751</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>2324</v>
+        <v>4480</v>
       </c>
       <c r="J9" t="n">
-        <v>3347</v>
+        <v>5839</v>
       </c>
       <c r="K9" t="n">
-        <v>13094</v>
-      </c>
-      <c r="L9" t="n">
-        <v>31214</v>
-      </c>
+        <v>15680</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>12611</v>
+        <v>21318</v>
       </c>
       <c r="N9" t="n">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1278</v>
-      </c>
-      <c r="C10" t="n">
-        <v>32</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1132</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4711</v>
-      </c>
-      <c r="G10" t="n">
-        <v>41338</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8991</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2727</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3854</v>
-      </c>
-      <c r="K10" t="n">
-        <v>13598</v>
-      </c>
-      <c r="L10" t="n">
-        <v>32347</v>
-      </c>
-      <c r="M10" t="n">
-        <v>13447</v>
-      </c>
-      <c r="N10" t="n">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1403</v>
-      </c>
-      <c r="C11" t="n">
-        <v>23</v>
-      </c>
-      <c r="D11" t="n">
-        <v>15</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1101</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4340</v>
-      </c>
-      <c r="G11" t="n">
-        <v>41505</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9480</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2901</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4075</v>
-      </c>
-      <c r="K11" t="n">
-        <v>13430</v>
-      </c>
-      <c r="L11" t="n">
-        <v>32025</v>
-      </c>
-      <c r="M11" t="n">
-        <v>13707</v>
-      </c>
-      <c r="N11" t="n">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1546</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" t="n">
-        <v>16</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1162</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4037</v>
-      </c>
-      <c r="G12" t="n">
-        <v>46253</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10694</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3298</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4688</v>
-      </c>
-      <c r="K12" t="n">
-        <v>14991</v>
-      </c>
-      <c r="L12" t="n">
-        <v>35559</v>
-      </c>
-      <c r="M12" t="n">
-        <v>15968</v>
-      </c>
-      <c r="N12" t="n">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1291</v>
-      </c>
-      <c r="C13" t="n">
-        <v>22</v>
-      </c>
-      <c r="D13" t="n">
-        <v>15</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3456</v>
-      </c>
-      <c r="G13" t="n">
-        <v>43718</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10404</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3317</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4796</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14149</v>
-      </c>
-      <c r="L13" t="n">
-        <v>33314</v>
-      </c>
-      <c r="M13" t="n">
-        <v>15136</v>
-      </c>
-      <c r="N13" t="n">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1264</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1130</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3607</v>
-      </c>
-      <c r="G14" t="n">
-        <v>48013</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11737</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4153</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5190</v>
-      </c>
-      <c r="K14" t="n">
-        <v>15144</v>
-      </c>
-      <c r="L14" t="n">
-        <v>36276</v>
-      </c>
-      <c r="M14" t="n">
-        <v>16976</v>
-      </c>
-      <c r="N14" t="n">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1526</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>865</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3547</v>
-      </c>
-      <c r="G15" t="n">
-        <v>49225</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>4718</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5680</v>
-      </c>
-      <c r="K15" t="n">
-        <v>15647</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>16808</v>
-      </c>
-      <c r="N15" t="n">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1497</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1024</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3201</v>
-      </c>
-      <c r="G16" t="n">
-        <v>50816</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>5024</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5702</v>
-      </c>
-      <c r="K16" t="n">
-        <v>14845</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>19106</v>
-      </c>
-      <c r="N16" t="n">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1777</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>883</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3132</v>
-      </c>
-      <c r="G17" t="n">
-        <v>49387</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>4507</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5033</v>
-      </c>
-      <c r="K17" t="n">
-        <v>14680</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>18989</v>
-      </c>
-      <c r="N17" t="n">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1856</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>7</v>
-      </c>
-      <c r="E18" t="n">
-        <v>782</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3192</v>
-      </c>
-      <c r="G18" t="n">
-        <v>43738</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>4212</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4437</v>
-      </c>
-      <c r="K18" t="n">
-        <v>12685</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>16157</v>
-      </c>
-      <c r="N18" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1144</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>781</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3921</v>
-      </c>
-      <c r="G19" t="n">
-        <v>53751</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>4480</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5839</v>
-      </c>
-      <c r="K19" t="n">
-        <v>15680</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>21318</v>
-      </c>
-      <c r="N19" t="n">
         <v>583</v>
       </c>
     </row>
